--- a/doc/ue_actor.xlsx
+++ b/doc/ue_actor.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D687AB9-5C3F-44C0-B120-C56FE63E4C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
     <sheet name="pawn" sheetId="3" r:id="rId2"/>
     <sheet name="Character" sheetId="4" r:id="rId3"/>
     <sheet name="component" sheetId="2" r:id="rId4"/>
+    <sheet name="actor-owner" sheetId="5" r:id="rId5"/>
+    <sheet name="Pawn与Controller联系" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>Actor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,11 +255,140 @@
   <si>
     <t>Character</t>
   </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Owner of this Actor, used primarily for replication (bNetUseOwnerRelevancy &amp; bOnlyRelevantToOwner) and visibility (PrimitiveComponent bOwnerNoSee and bOnlyOwnerSee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @see SetOwner(), GetOwner()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(ReplicatedUsing=OnRep_Owner)</t>
+  </si>
+  <si>
+    <t>AActor* Owner;</t>
+  </si>
+  <si>
+    <t>涉及可视化+同步的属性，配合相关的配置变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(STAT_Pawn_PostInitComponents);</t>
+  </si>
+  <si>
+    <t>Super::PostInitializeComponents();</t>
+  </si>
+  <si>
+    <t>if (!IsPendingKill())</t>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>// Automatically add Controller to AI Pawns if we are allowed to.</t>
+  </si>
+  <si>
+    <t>if (AutoPossessPlayer == EAutoReceiveInput::Disabled</t>
+  </si>
+  <si>
+    <t>&amp;&amp; AutoPossessAI != EAutoPossessAI::Disabled &amp;&amp; Controller == nullptr &amp;&amp; GetNetMode() != NM_Client</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>&amp;&amp; (GIsEditor == false || World-&gt;IsGameWorld())</t>
+  </si>
+  <si>
+    <t>#endif // WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>const bool bPlacedInWorld = (World-&gt;bStartup);</t>
+  </si>
+  <si>
+    <t>if ((AutoPossessAI == EAutoPossessAI::PlacedInWorldOrSpawned) ||</t>
+  </si>
+  <si>
+    <t>(AutoPossessAI == EAutoPossessAI::PlacedInWorld &amp;&amp; bPlacedInWorld) ||</t>
+  </si>
+  <si>
+    <t>(AutoPossessAI == EAutoPossessAI::Spawned &amp;&amp; !bPlacedInWorld))</t>
+  </si>
+  <si>
+    <t>SpawnDefaultController();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>// update movement component's nav agent values</t>
+  </si>
+  <si>
+    <t>UpdateNavAgent();</t>
+  </si>
+  <si>
+    <t>Pawn初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建对应的Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！是否生成Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pawn和Controller的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建默认的AiController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部将Pawn的owner设置为AiController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端玩家类必然是一个Pawn对应PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC的Pawn可以设置不需要AIController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的pawn都设置了一个默认的AIController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！对于Standalone模式和服务器模式，是通过Controller::Process处理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是对于客户端模式，是通过同步设置的e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -773,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -825,10 +957,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A5:D79"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -1029,4 +1161,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E7B6E-944D-4751-886E-74161E7501EF}">
+  <dimension ref="B3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE52CC1-1C6D-458A-8E2A-7F07028FAFC2}">
+  <dimension ref="A2:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>